--- a/14. Filter_Funtion.xlsx
+++ b/14. Filter_Funtion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEA23F8-408E-474F-8CE2-80B22BA733F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0D0C0-10BB-4558-A9A9-CA1A36BBF870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BFBBEF0E-38F6-425F-BAC2-FA1DC07E9D1B}"/>
   </bookViews>
@@ -35,10 +35,249 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+  <si>
+    <t>ORD1000</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>alice@mail.com</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>ORD1001</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>bob@mail.com</t>
+  </si>
+  <si>
+    <t>8765432109</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>ORD1002</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>charlie@mail.net</t>
+  </si>
+  <si>
+    <t>7654321098</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>ORD1003</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>david@mail.org</t>
+  </si>
+  <si>
+    <t>6543210987</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>ORD1004</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>eva@mail.com</t>
+  </si>
+  <si>
+    <t>5432109876</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>ORD1005</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>frank@mail.com</t>
+  </si>
+  <si>
+    <t>4321098765</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>ORD1006</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>grace@mail.net</t>
+  </si>
+  <si>
+    <t>3210987654</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>ORD1007</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>hannah@mail.org</t>
+  </si>
+  <si>
+    <t>2109876543</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>ORD1008</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>ivan@mail.com</t>
+  </si>
+  <si>
+    <t>1098765432</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>ORD1009</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>julia@mail.com</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Order_ID</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Order_Date</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit_Price</t>
+  </si>
+  <si>
+    <t>Discount_%</t>
+  </si>
+  <si>
+    <t>Payment_Received</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Total_Amount</t>
+  </si>
+  <si>
+    <t>Discount_Amount</t>
+  </si>
+  <si>
+    <t>Net_Amount</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -54,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,17 +301,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -89,16 +399,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>895351</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -113,8 +423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5257801" y="190500"/>
-          <a:ext cx="971550" cy="285750"/>
+          <a:off x="4343401" y="209550"/>
+          <a:ext cx="962024" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -153,7 +463,313 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4ACDF9-1650-C340-5389-EB1FEB7F55A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3438524"/>
+          <a:ext cx="4552950" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Q. Find all the data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> corresponding to the products in the Electronics category (Done without naming the table)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA09EC0C-5C64-95FC-1188-2EFEE90A4646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="5638800"/>
+          <a:ext cx="8515350" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Doubts:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> How to select the whole table in the context of FILTER function, when the table is very large. Ctrl+A doesn't seem to work in the context of FILTER().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Ans. Name the Table (say Table1) before applying the FILTER() so that it will automatically appear when you type the formula.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Ans. Use Ctrl +Shit + Arrow Keys</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3119A6F3-19D7-867A-356B-5AFDCC86FC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="6858000"/>
+          <a:ext cx="8686800" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Q. Find all the data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> corresponding to the products in the Electronics category (Done with naming the table)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}" name="Table1" displayName="Table1" ref="A7:O17" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A7:O17" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{1EA9B846-0D8D-4AB8-A780-78A76657E450}" name="Order_ID"/>
+    <tableColumn id="2" xr3:uid="{CA0008A4-96C1-4D89-9E19-614CC92F3D37}" name="Customer_Name"/>
+    <tableColumn id="3" xr3:uid="{AFF1396D-E450-41C2-88AA-AC8A5490C1F1}" name="Email"/>
+    <tableColumn id="4" xr3:uid="{B8468EAF-41F3-448A-B0EA-3387A23B0C84}" name="Phone_Number" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{029B18AC-E07E-4343-8692-11CB21B2F4B8}" name="Product"/>
+    <tableColumn id="6" xr3:uid="{5CAB8D2E-E833-4CC3-80D5-93BA1DEDEEE9}" name="Category"/>
+    <tableColumn id="7" xr3:uid="{857C2680-AC3A-48AC-B30C-955E7EF29D23}" name="Order_Date" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{0127A2CC-3030-40E8-AABD-0BAD79FC33E7}" name="Quantity"/>
+    <tableColumn id="9" xr3:uid="{91C25294-BF0D-4C1A-9B72-A5B383AEE6DB}" name="Unit_Price"/>
+    <tableColumn id="10" xr3:uid="{F3089E0D-CA32-422A-AB61-D05E6B1E4FAE}" name="Discount_%"/>
+    <tableColumn id="11" xr3:uid="{A2098533-255A-4120-9093-2E457573594E}" name="Payment_Received"/>
+    <tableColumn id="12" xr3:uid="{48A562ED-3884-4B25-9190-0EBC54305FF3}" name="Shipped"/>
+    <tableColumn id="13" xr3:uid="{780E282C-CA14-405F-B3D2-20A9D9D572FF}" name="Total_Amount"/>
+    <tableColumn id="14" xr3:uid="{E5137FBB-03F6-4D38-B993-D5987DCF122E}" name="Discount_Amount"/>
+    <tableColumn id="15" xr3:uid="{FBE247CA-DE02-4F3E-81A3-2BDACD695651}" name="Net_Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,15 +1089,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D8C0E9-5A5E-45A5-87C9-723F9AAD6FE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A7:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45306</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>750</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>750</v>
+      </c>
+      <c r="N8">
+        <v>75</v>
+      </c>
+      <c r="O8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45318</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>150</v>
+      </c>
+      <c r="J9">
+        <v>0.05</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>300</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45330</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="J10">
+        <v>0.15</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45342</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>900</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45354</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>120</v>
+      </c>
+      <c r="J12">
+        <v>0.05</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>240</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>80</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45378</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45390</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>400</v>
+      </c>
+      <c r="N15">
+        <v>80</v>
+      </c>
+      <c r="O15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45402</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>400</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>400</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45414</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>150</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23:P27">_xlfn._xlws.FILTER(A8:O17, F8:F17="Electronics")</f>
+        <v>ORD1000</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="D23" t="str">
+        <v>alice@mail.com</v>
+      </c>
+      <c r="E23" t="str">
+        <v>9876543210</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H23">
+        <v>45306</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>750</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>750</v>
+      </c>
+      <c r="O23">
+        <v>75</v>
+      </c>
+      <c r="P23">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <v>ORD1002</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Charlie</v>
+      </c>
+      <c r="D24" t="str">
+        <v>charlie@mail.net</v>
+      </c>
+      <c r="E24" t="str">
+        <v>7654321098</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Smartphone</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H24">
+        <v>45330</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24">
+        <v>0.15</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>500</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="P24">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <v>ORD1003</v>
+      </c>
+      <c r="C25" t="str">
+        <v>David</v>
+      </c>
+      <c r="D25" t="str">
+        <v>david@mail.org</v>
+      </c>
+      <c r="E25" t="str">
+        <v>6543210987</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Monitor</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H25">
+        <v>45342</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>900</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <v>ORD1007</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Hannah</v>
+      </c>
+      <c r="D26" t="str">
+        <v>hannah@mail.org</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2109876543</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Printer</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H26">
+        <v>45390</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>200</v>
+      </c>
+      <c r="K26">
+        <v>0.2</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>400</v>
+      </c>
+      <c r="O26">
+        <v>80</v>
+      </c>
+      <c r="P26">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <v>ORD1008</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Ivan</v>
+      </c>
+      <c r="D27" t="str">
+        <v>ivan@mail.com</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1098765432</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H27">
+        <v>45402</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>400</v>
+      </c>
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>400</v>
+      </c>
+      <c r="O27">
+        <v>40</v>
+      </c>
+      <c r="P27">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/14. Filter_Funtion.xlsx
+++ b/14. Filter_Funtion.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0D0C0-10BB-4558-A9A9-CA1A36BBF870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D77A71E-74F8-4C97-9263-C741EDC9E7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BFBBEF0E-38F6-425F-BAC2-FA1DC07E9D1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BFBBEF0E-38F6-425F-BAC2-FA1DC07E9D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>ORD1000</t>
   </si>
@@ -259,6 +260,9 @@
   </si>
   <si>
     <t>Net_Amount</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -341,16 +345,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -749,7 +753,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}" name="Table1" displayName="Table1" ref="A7:O17" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}" name="Table1" displayName="Table1" ref="A7:O17" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A7:O17" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1EA9B846-0D8D-4AB8-A780-78A76657E450}" name="Order_ID"/>
@@ -1091,30 +1095,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D8C0E9-5A5E-45A5-87C9-723F9AAD6FE3}">
   <dimension ref="A7:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23:P27">_xlfn._xlws.FILTER(A8:O17, F8:F17="Electronics")</f>
         <v>ORD1000</v>
@@ -1679,7 +1683,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <v>ORD1002</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <v>ORD1003</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <v>ORD1007</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <v>ORD1008</v>
       </c>
@@ -1874,4 +1878,24 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCBF189-B794-498B-9961-C65AC3906BB2}">
+  <dimension ref="E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/14. Filter_Funtion.xlsx
+++ b/14. Filter_Funtion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D77A71E-74F8-4C97-9263-C741EDC9E7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF0573-1558-4D85-A28D-BAB895D44E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BFBBEF0E-38F6-425F-BAC2-FA1DC07E9D1B}"/>
   </bookViews>
@@ -1882,14 +1882,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCBF189-B794-498B-9961-C65AC3906BB2}">
-  <dimension ref="E19"/>
+  <dimension ref="E14:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="14" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>44</v>
+      </c>
+    </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>67</v>
